--- a/notes/ML_compare.xlsx
+++ b/notes/ML_compare.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>XGBoost</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,12 +147,36 @@
     <t>算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.jianshu.com/p/c3fa53c54cca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/sscc_learning/article/details/78591210?utm_medium=distribute.pc_relevant.none-task-blog-2%7Edefault%7EBlogCommendFromMachineLearnPai2%7Edefault-2.vipsorttest&amp;depth_1-utm_source=distribute.pc_relevant.none-task-blog-2%7Edefault%7EBlogCommendFromMachineLearnPai2%7Edefault-2.vipsorttest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/shenxiaoming77/article/details/78771698</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +189,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -184,10 +217,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -204,13 +238,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -222,81 +272,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -308,14 +287,150 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="https://upload-images.jianshu.io/upload_images/2629052-2cb929db8ac431f7.png?imageMogr2/auto-orient/strip|imageView2/2/format/webp"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12201525" y="1809750"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="AutoShape 3" descr="https://upload-images.jianshu.io/upload_images/2629052-2cb929db8ac431f7.png?imageMogr2/auto-orient/strip|imageView2/2/format/webp"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12201525" y="1809750"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403411</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>515470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>208428</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>270425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15329646" y="694764"/>
+          <a:ext cx="10058400" cy="5335485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D6" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
-  <autoFilter ref="A1:D6"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="算法" dataDxfId="0"/>
-    <tableColumn id="2" name="优点" dataDxfId="1"/>
-    <tableColumn id="3" name="缺点" dataDxfId="5"/>
-    <tableColumn id="4" name="适用范围" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G6"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="算法" dataDxfId="6"/>
+    <tableColumn id="2" name="优点" dataDxfId="5"/>
+    <tableColumn id="3" name="缺点" dataDxfId="4"/>
+    <tableColumn id="4" name="适用范围" dataDxfId="3"/>
+    <tableColumn id="5" name="列1" dataDxfId="2"/>
+    <tableColumn id="6" name="列2" dataDxfId="1"/>
+    <tableColumn id="7" name="列3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -329,7 +444,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -584,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -597,7 +712,7 @@
     <col min="4" max="4" width="19.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -610,8 +725,17 @@
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -624,8 +748,11 @@
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -638,8 +765,17 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -652,8 +788,11 @@
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -666,8 +805,11 @@
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -680,13 +822,37 @@
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="F3"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>